--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Tolliver.Spring.011620.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Tolliver.Spring.011620.xlsx_with_dialog_acts.xlsx
@@ -723,12 +723,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -765,12 +765,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1101,12 +1101,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2109,12 +2109,12 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2449,12 +2449,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2491,12 +2491,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3083,12 +3083,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3419,12 +3419,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3755,12 +3755,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4469,12 +4469,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5351,12 +5351,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6065,12 +6065,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6359,12 +6359,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6737,12 +6737,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6905,12 +6905,12 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -7073,12 +7073,12 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7703,12 +7703,12 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7745,12 +7745,12 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8551,12 +8551,12 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9307,12 +9307,12 @@
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9433,12 +9433,12 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9769,12 +9769,12 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10655,12 +10655,12 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11289,12 +11289,12 @@
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11751,12 +11751,12 @@
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11835,12 +11835,12 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12129,12 +12129,12 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12297,12 +12297,12 @@
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13179,12 +13179,12 @@
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
